--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2584701.098330111</v>
+        <v>-2587752.342283951</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858994</v>
+        <v>8656875.781858981</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>206.0352194010568</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>267.3683146314838</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>204.1786873526418</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>37.55941934317701</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.8939792152981</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>216.3273452660812</v>
       </c>
       <c r="X5" t="n">
-        <v>174.5986077078408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.4543067672734</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.51651982872603</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>369.7983081316361</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>25.71396007345139</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.660750746876</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>230.2634979541059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292586</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094976</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.3165365479907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>123.9468996330556</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881755</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734100478</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.4746605491524</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>74.75769145493037</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004706</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314418</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145493037</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004706</v>
+        <v>17.25588147840126</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314418</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881755</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>40.46606172806686</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>36.60560362416938</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.470367422281</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.64750517800729</v>
+        <v>64.64750517800755</v>
       </c>
       <c r="S25" t="n">
-        <v>165.484377839402</v>
+        <v>165.4843778394022</v>
       </c>
       <c r="T25" t="n">
-        <v>195.2643017841294</v>
+        <v>195.2643017841295</v>
       </c>
       <c r="U25" t="n">
-        <v>261.9271907135731</v>
+        <v>261.9271907135732</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265259</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>156.7416385096051</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652557</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352489</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652572</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.0593650537552</v>
+        <v>692.9745034390426</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>324.0119864986309</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>324.0119864986309</v>
       </c>
       <c r="E2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2096.095837968453</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1765.032950624883</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1412.264295354769</v>
+        <v>1843.179433740056</v>
       </c>
       <c r="X2" t="n">
-        <v>1038.798537093689</v>
+        <v>1469.713675478976</v>
       </c>
       <c r="Y2" t="n">
-        <v>648.659205117877</v>
+        <v>1079.574343503164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4507,19 +4507,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1374.814428194113</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1005.851911253702</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1005.851911253702</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4841,13 +4841,13 @@
         <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172089</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172089</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
@@ -5030,13 +5030,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5045,28 +5045,28 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1088.893283004705</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>1622.42518767663</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5075,16 +5075,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,13 +5157,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2638710736754</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5236,13 +5236,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.2638710736754</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5273,7 +5273,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5285,43 +5285,43 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>1622.42518767663</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,73 +5331,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.440165407421</v>
+        <v>284.4401654074194</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972692</v>
+        <v>618.2595390972649</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.29375234568</v>
+        <v>1088.893283004711</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676621</v>
+        <v>1622.425187676634</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.17745990327</v>
+        <v>2602.17745990328</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232727</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679675</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494856</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763705</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039389999</v>
+        <v>189.2383039390172</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193638</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320284</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.476988454343</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008797</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0738540998392</v>
+        <v>211.1920047000636</v>
       </c>
       <c r="C19" t="n">
-        <v>171.0738540998392</v>
+        <v>211.1920047000636</v>
       </c>
       <c r="D19" t="n">
-        <v>171.0738540998392</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>171.0738540998392</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>171.0738540998392</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953304</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862238</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689064</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258591</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384234</v>
+        <v>1385.724257814698</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783472</v>
+        <v>1131.039769608811</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413867</v>
+        <v>841.6225995718507</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433693</v>
+        <v>613.6330486738334</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998392</v>
+        <v>392.8404695303033</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.440165407421</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972692</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.29375234568</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676621</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.17745990327</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232727</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679675</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089886</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039389999</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953304</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862238</v>
+        <v>1938.913282793187</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689064</v>
+        <v>1747.227398620013</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258591</v>
+        <v>1525.460783189539</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384234</v>
+        <v>1236.357916315183</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783472</v>
+        <v>981.6734281092956</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413867</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433693</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998392</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089251</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.440165407421</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972692</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004692</v>
+        <v>1069.293752345676</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.425187676619</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903268</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232725</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679673</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188663</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763705</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390124</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193483</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320152</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008789</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.529320061461</v>
+        <v>402.5293200614552</v>
       </c>
       <c r="C25" t="n">
-        <v>258.1230840952104</v>
+        <v>258.1230840952045</v>
       </c>
       <c r="D25" t="n">
-        <v>217.2482742688802</v>
+        <v>132.5363916445251</v>
       </c>
       <c r="E25" t="n">
-        <v>217.2482742688802</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>217.2482742688802</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>217.2482742688802</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>164.7254679124498</v>
+        <v>164.7254679124494</v>
       </c>
       <c r="K25" t="n">
-        <v>392.7544518784463</v>
+        <v>392.7544518784451</v>
       </c>
       <c r="L25" t="n">
-        <v>733.3560513440627</v>
+        <v>733.3560513440607</v>
       </c>
       <c r="M25" t="n">
-        <v>1101.554897960732</v>
+        <v>1101.554897960729</v>
       </c>
       <c r="N25" t="n">
-        <v>1467.005075683717</v>
+        <v>1467.005075683713</v>
       </c>
       <c r="O25" t="n">
-        <v>1790.376475621251</v>
+        <v>1790.376475621246</v>
       </c>
       <c r="P25" t="n">
-        <v>2047.02577707203</v>
+        <v>2047.025777072025</v>
       </c>
       <c r="Q25" t="n">
-        <v>2148.677874241665</v>
+        <v>2148.677874241659</v>
       </c>
       <c r="R25" t="n">
-        <v>2083.377363960849</v>
+        <v>2083.377363960843</v>
       </c>
       <c r="S25" t="n">
-        <v>1916.221426749332</v>
+        <v>1916.221426749326</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.984758280514</v>
+        <v>1718.984758280508</v>
       </c>
       <c r="U25" t="n">
-        <v>1454.411838367814</v>
+        <v>1454.411838367808</v>
       </c>
       <c r="V25" t="n">
-        <v>1224.257297123583</v>
+        <v>1224.257297123578</v>
       </c>
       <c r="W25" t="n">
-        <v>959.3700740482791</v>
+        <v>959.3700740482734</v>
       </c>
       <c r="X25" t="n">
-        <v>755.9104701119181</v>
+        <v>755.9104701119123</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.6478379300444</v>
+        <v>559.6478379300386</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6391,13 +6391,13 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
         <v>2496.057455973196</v>
@@ -6418,13 +6418,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,16 +6652,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7132,10 +7132,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7260,7 +7260,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7339,40 +7339,40 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>19.79750571619195</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>19.79750571619206</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>19.79750571620031</v>
       </c>
       <c r="M17" t="n">
-        <v>19.79750571617569</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>19.79750571617569</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>19.79750571617393</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>19.79750571619093</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.288347377463717e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-1.106486523151919e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.2376723699508</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>114.562055440778</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,19 +22756,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>85.14112624278619</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>242.6756726418388</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.926990152596355e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.3211098256413</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.26811680410414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>162.5760987035355</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>34.14081246905991</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>91.26811680409786</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>71.67627119164608</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>83.86476379810573</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>85.54371153036006</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -24379,10 +24379,10 @@
         <v>141.7411607669885</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.470367422281</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779815</v>
+        <v>72.06777291779832</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1278564.276822454</v>
+        <v>1278564.276822455</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1410612.948171854</v>
+        <v>1410612.948171853</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1410612.948171854</v>
+        <v>1410612.948171853</v>
       </c>
     </row>
     <row r="8">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.044609689415665e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735893</v>
+        <v>376527.133573591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123255.8861912279</v>
+        <v>123255.8861912283</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709167</v>
+        <v>21619.60799709196</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709167</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>29610.46726018513</v>
+        <v>29610.46726018532</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.50789975157</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="K4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975158</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="O4" t="n">
         <v>12448.50789975159</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975157</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371361</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371372</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371372</v>
-      </c>
       <c r="I5" t="n">
-        <v>98425.104283722</v>
+        <v>98425.10428372196</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-796082.8434691818</v>
+        <v>-796384.8524372563</v>
       </c>
       <c r="C6" t="n">
         <v>-275065.6744558392</v>
@@ -26528,22 +26528,22 @@
         <v>-275065.6744558392</v>
       </c>
       <c r="E6" t="n">
-        <v>-845380.5402442121</v>
+        <v>-845447.7357344379</v>
       </c>
       <c r="F6" t="n">
-        <v>-118003.1262508054</v>
+        <v>-118070.3217410313</v>
       </c>
       <c r="G6" t="n">
-        <v>-118003.126250808</v>
+        <v>-118070.3217410301</v>
       </c>
       <c r="H6" t="n">
-        <v>-118003.1262508054</v>
+        <v>-118070.3217410324</v>
       </c>
       <c r="I6" t="n">
-        <v>-147463.2895375389</v>
+        <v>-147495.7471023292</v>
       </c>
       <c r="J6" t="n">
-        <v>-492139.7573272563</v>
+        <v>-492139.757327258</v>
       </c>
       <c r="K6" t="n">
         <v>-115612.623753667</v>
@@ -26552,7 +26552,7 @@
         <v>-115612.623753667</v>
       </c>
       <c r="M6" t="n">
-        <v>-245254.9385926117</v>
+        <v>-245254.9385926118</v>
       </c>
       <c r="N6" t="n">
         <v>-135040.3417472988</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203976</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,13 +26750,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203976</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203978</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26972,16 +26972,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483725</v>
+        <v>278.198799748375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492741</v>
+        <v>652.4826302492737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>47.04548015564745</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>311.681549374236</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>132.9136234513319</v>
       </c>
       <c r="X5" t="n">
-        <v>195.1324929706282</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.82756747470432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0681335233688</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.1320619406257</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>323.5270086439616</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.77321189969317</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974805</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781704</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451126</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026319</v>
+        <v>221.4611312026493</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837916</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970242</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002921</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S18" t="n">
-        <v>43.5396634623833</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U18" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742037</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297395</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883125</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O19" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895886</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974805</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781704</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451126</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026319</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297395</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895886</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681611</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844682</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974805</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054954</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781704</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563578</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451126</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353043</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987496</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.5396634623833</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311885</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742037</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297395</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883125</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802177</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895886</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712242</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622656</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,10 +35413,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>475.3876201085241</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
@@ -35653,7 +35653,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>558.7186215464188</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687121</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554022</v>
+        <v>337.1912865553996</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923343</v>
+        <v>475.3876201085315</v>
       </c>
       <c r="M17" t="n">
-        <v>558.7186215464048</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248981</v>
+        <v>989.6487598248945</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509669</v>
+        <v>888.8531821509634</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908565</v>
+        <v>720.5606943908535</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636256</v>
+        <v>463.1092954636235</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152081</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453596518</v>
+        <v>94.62350453598262</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609562</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N18" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004583</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525798</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859618</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789417</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554022</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923343</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>558.7186215464048</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248981</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509669</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908565</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636256</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152081</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453596518</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306668</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789417</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554022</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L23" t="n">
-        <v>475.3876201085083</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302292</v>
+        <v>558.7186215464179</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248981</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509669</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908565</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636256</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152081</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597779</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609453</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127281</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.86306410510645</v>
+        <v>69.86306410510602</v>
       </c>
       <c r="K25" t="n">
-        <v>230.33230703636</v>
+        <v>230.3323070363594</v>
       </c>
       <c r="L25" t="n">
-        <v>344.0420196622388</v>
+        <v>344.042019662238</v>
       </c>
       <c r="M25" t="n">
-        <v>371.9180268855246</v>
+        <v>371.9180268855237</v>
       </c>
       <c r="N25" t="n">
-        <v>369.1415936595808</v>
+        <v>369.1415936595799</v>
       </c>
       <c r="O25" t="n">
-        <v>326.6377777146804</v>
+        <v>326.6377777146796</v>
       </c>
       <c r="P25" t="n">
-        <v>259.2417186371509</v>
+        <v>259.2417186371503</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.6788860299339</v>
+        <v>102.6788860299334</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402472</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
